--- a/tablas/tanzania-paramXGB.xlsx
+++ b/tablas/tanzania-paramXGB.xlsx
@@ -135,40 +135,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16508.0</v>
+        <v>11720.0</v>
       </c>
       <c r="C2" t="n">
-        <v>4336.0</v>
+        <v>5567.0</v>
       </c>
       <c r="D2" t="n">
-        <v>27923.0</v>
+        <v>26692.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6316.0</v>
+        <v>11104.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7919785070044137</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7232737469330529</v>
+        <v>0.5134945671223273</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8655878979509595</v>
+        <v>0.8274280045878669</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7560685169918475</v>
+        <v>0.584378350078532</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8066191020823121</v>
+        <v>0.6973476390174828</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5964281013457465</v>
+        <v>0.353462262459327</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7912376395564708</v>
+        <v>0.6518280333345121</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8742511796635714</v>
+        <v>0.7395073903573528</v>
       </c>
     </row>
     <row r="3">
@@ -178,40 +178,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16608.0</v>
+        <v>11694.0</v>
       </c>
       <c r="C3" t="n">
-        <v>4363.0</v>
+        <v>5528.0</v>
       </c>
       <c r="D3" t="n">
-        <v>27896.0</v>
+        <v>26731.0</v>
       </c>
       <c r="E3" t="n">
-        <v>6216.0</v>
+        <v>11130.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7919507891850651</v>
+        <v>0.6790152130995238</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7276550998948476</v>
+        <v>0.5123554153522608</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8647509222232556</v>
+        <v>0.8286369695278837</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7584427446055486</v>
+        <v>0.5840283673775158</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8079443748524954</v>
+        <v>0.6975836464971044</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5995239105681299</v>
+        <v>0.3536873611965026</v>
       </c>
       <c r="L3" t="n">
-        <v>0.793246757758596</v>
+        <v>0.6515801091950993</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8754083646689789</v>
+        <v>0.7410706059994028</v>
       </c>
     </row>
     <row r="4">
@@ -221,40 +221,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16604.0</v>
+        <v>11737.0</v>
       </c>
       <c r="C4" t="n">
-        <v>4355.0</v>
+        <v>5459.0</v>
       </c>
       <c r="D4" t="n">
-        <v>27904.0</v>
+        <v>26800.0</v>
       </c>
       <c r="E4" t="n">
-        <v>6220.0</v>
+        <v>11087.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7922133689584426</v>
+        <v>0.6825424517329611</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7274798457763757</v>
+        <v>0.5142393971258324</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8649989150314641</v>
+        <v>0.8307759074986826</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7584678984994175</v>
+        <v>0.5865567216391804</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8080169925385328</v>
+        <v>0.6996169417061525</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5996441817712015</v>
+        <v>0.35792189739669844</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7932649477342496</v>
+        <v>0.6536189270659081</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8758323389010702</v>
+        <v>0.7421599261441253</v>
       </c>
     </row>
     <row r="5">
@@ -264,40 +264,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16575.0</v>
+        <v>11760.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4357.0</v>
+        <v>5440.0</v>
       </c>
       <c r="D5" t="n">
-        <v>27902.0</v>
+        <v>26819.0</v>
       </c>
       <c r="E5" t="n">
-        <v>6249.0</v>
+        <v>11064.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7918497993502771</v>
+        <v>0.6837209302325581</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7262092534174553</v>
+        <v>0.5152471083070452</v>
       </c>
       <c r="H5" t="n">
-        <v>0.864936916829412</v>
+        <v>0.8313648904181778</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7576103848615048</v>
+        <v>0.5876474115530681</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8074542054717426</v>
+        <v>0.7003794274095456</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5984002469906307</v>
+        <v>0.3595687617640666</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7925434957299713</v>
+        <v>0.6544909134097812</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8757386971416005</v>
+        <v>0.7433142345242325</v>
       </c>
     </row>
     <row r="6">
@@ -307,40 +307,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16565.0</v>
+        <v>11794.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4332.0</v>
+        <v>5466.0</v>
       </c>
       <c r="D6" t="n">
-        <v>27927.0</v>
+        <v>26793.0</v>
       </c>
       <c r="E6" t="n">
-        <v>6259.0</v>
+        <v>11030.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7926975163899125</v>
+        <v>0.683314020857474</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7257711181212758</v>
+        <v>0.5167367683140554</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8657118943550637</v>
+        <v>0.8305589137915</v>
       </c>
       <c r="I6" t="n">
-        <v>0.757759429107294</v>
+        <v>0.5884642251272328</v>
       </c>
       <c r="J6" t="n">
-        <v>0.807726521794383</v>
+        <v>0.7005246627816205</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5988771704029291</v>
+        <v>0.3601343792129398</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7926592518459381</v>
+        <v>0.6551185610307891</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8755686726953292</v>
+        <v>0.7438671930766115</v>
       </c>
     </row>
   </sheetData>
